--- a/HCI Experiment/Personas.xlsx
+++ b/HCI Experiment/Personas.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="45" windowWidth="11415" windowHeight="11550" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="285" windowWidth="10680" windowHeight="4800"/>
   </bookViews>
   <sheets>
     <sheet name="Personas" sheetId="4" r:id="rId1"/>
@@ -14,13 +14,24 @@
     <sheet name="Tarea 4" sheetId="7" r:id="rId5"/>
     <sheet name="Todas" sheetId="8" r:id="rId6"/>
     <sheet name="Comentarios" sheetId="9" r:id="rId7"/>
+    <sheet name="Sheet1" sheetId="10" r:id="rId8"/>
   </sheets>
+  <definedNames>
+    <definedName name="__sm_DR_89fc0980" localSheetId="5">Todas!$S$1:$V$2</definedName>
+    <definedName name="__sm_DR_dfb14f00" localSheetId="5">Todas!$X$1:$AA$2</definedName>
+    <definedName name="__sm_DV_89fc0980" localSheetId="5">{1;1;"";FALSE}</definedName>
+    <definedName name="__sm_DV_dfb14f00" localSheetId="5">{1;1;"";FALSE}</definedName>
+    <definedName name="__sm_VR_deb14f01" localSheetId="5">Todas!$X$1:$AA$2</definedName>
+    <definedName name="__sm_VR_f5fc0981" localSheetId="5">Todas!$S$1:$V$2</definedName>
+    <definedName name="__sm_VV_deb14f01" localSheetId="5">{1;134218756}</definedName>
+    <definedName name="__sm_VV_f5fc0981" localSheetId="5">{1;134218756}</definedName>
+  </definedNames>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="60">
   <si>
     <t>Nombre</t>
   </si>
@@ -172,12 +183,42 @@
   <si>
     <t>Preferencias</t>
   </si>
+  <si>
+    <t>SU - GUI</t>
+  </si>
+  <si>
+    <t>T1</t>
+  </si>
+  <si>
+    <t>T2</t>
+  </si>
+  <si>
+    <t>T3</t>
+  </si>
+  <si>
+    <t>T4</t>
+  </si>
+  <si>
+    <t>Janeth Restrepo L.</t>
+  </si>
+  <si>
+    <t>Luz Maria Agudelo.</t>
+  </si>
+  <si>
+    <t>Promedio</t>
+  </si>
+  <si>
+    <t>STDEV</t>
+  </si>
+  <si>
+    <t>Intervalos de Confianza</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="4">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -207,6 +248,19 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color indexed="8"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color indexed="8"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -221,7 +275,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -333,13 +387,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -350,7 +413,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="3" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -359,6 +421,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="2"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -373,6 +447,12 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -550,11 +630,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="60752256"/>
-        <c:axId val="60754176"/>
+        <c:axId val="68435968"/>
+        <c:axId val="68438272"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="60752256"/>
+        <c:axId val="68435968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -584,14 +664,14 @@
         </c:title>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="60754176"/>
+        <c:crossAx val="68438272"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="60754176"/>
+        <c:axId val="68438272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -622,7 +702,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="60752256"/>
+        <c:crossAx val="68435968"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -635,7 +715,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000111" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000111" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.750000000000002" l="0.70000000000000062" r="0.70000000000000062" t="0.750000000000002" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -744,12 +824,12 @@
           </c:val>
         </c:ser>
         <c:shape val="box"/>
-        <c:axId val="66386944"/>
-        <c:axId val="67253376"/>
+        <c:axId val="68946944"/>
+        <c:axId val="68953216"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="66386944"/>
+        <c:axId val="68946944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -774,14 +854,14 @@
         </c:title>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="67253376"/>
+        <c:crossAx val="68953216"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="67253376"/>
+        <c:axId val="68953216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -807,7 +887,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="66386944"/>
+        <c:crossAx val="68946944"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -820,7 +900,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000056" l="0.70000000000000051" r="0.70000000000000051" t="0.75000000000000056" header="0.30000000000000027" footer="0.30000000000000027"/>
+    <c:pageMargins b="0.75000000000000155" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000155" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -951,24 +1031,24 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="60771328"/>
-        <c:axId val="60781312"/>
+        <c:axId val="68451328"/>
+        <c:axId val="68469504"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="60771328"/>
+        <c:axId val="68451328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="60781312"/>
+        <c:crossAx val="68469504"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="60781312"/>
+        <c:axId val="68469504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -976,7 +1056,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="60771328"/>
+        <c:crossAx val="68451328"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -989,7 +1069,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000044" l="0.7000000000000004" r="0.7000000000000004" t="0.75000000000000044" header="0.30000000000000021" footer="0.30000000000000021"/>
+    <c:pageMargins b="0.75000000000000144" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000144" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1145,11 +1225,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="60834944"/>
-        <c:axId val="60836864"/>
+        <c:axId val="49710208"/>
+        <c:axId val="49712128"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="60834944"/>
+        <c:axId val="49710208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1179,14 +1259,14 @@
         </c:title>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="60836864"/>
+        <c:crossAx val="49712128"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="60836864"/>
+        <c:axId val="49712128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1217,7 +1297,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="60834944"/>
+        <c:crossAx val="49710208"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1230,7 +1310,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000133" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000133" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000222" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000222" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1361,24 +1441,24 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="60862464"/>
-        <c:axId val="60864000"/>
+        <c:axId val="68636672"/>
+        <c:axId val="68638208"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="60862464"/>
+        <c:axId val="68636672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="60864000"/>
+        <c:crossAx val="68638208"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="60864000"/>
+        <c:axId val="68638208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1386,7 +1466,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="60862464"/>
+        <c:crossAx val="68636672"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1399,7 +1479,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000044" l="0.7000000000000004" r="0.7000000000000004" t="0.75000000000000044" header="0.30000000000000021" footer="0.30000000000000021"/>
+    <c:pageMargins b="0.75000000000000144" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000144" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1555,11 +1635,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="60872576"/>
-        <c:axId val="60874752"/>
+        <c:axId val="68691840"/>
+        <c:axId val="68722688"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="60872576"/>
+        <c:axId val="68691840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1584,14 +1664,14 @@
         </c:title>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="60874752"/>
+        <c:crossAx val="68722688"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="60874752"/>
+        <c:axId val="68722688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1622,7 +1702,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="60872576"/>
+        <c:crossAx val="68691840"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1635,7 +1715,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000111" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000111" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.750000000000002" l="0.70000000000000062" r="0.70000000000000062" t="0.750000000000002" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1766,24 +1846,24 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="60904192"/>
-        <c:axId val="60905728"/>
+        <c:axId val="68739840"/>
+        <c:axId val="68741376"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="60904192"/>
+        <c:axId val="68739840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="60905728"/>
+        <c:crossAx val="68741376"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="60905728"/>
+        <c:axId val="68741376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1791,7 +1871,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="60904192"/>
+        <c:crossAx val="68739840"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1804,7 +1884,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000044" l="0.7000000000000004" r="0.7000000000000004" t="0.75000000000000044" header="0.30000000000000021" footer="0.30000000000000021"/>
+    <c:pageMargins b="0.75000000000000144" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000144" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1960,11 +2040,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="60975744"/>
-        <c:axId val="61121280"/>
+        <c:axId val="68786816"/>
+        <c:axId val="68793088"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="60975744"/>
+        <c:axId val="68786816"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1994,14 +2074,14 @@
         </c:title>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="61121280"/>
+        <c:crossAx val="68793088"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="61121280"/>
+        <c:axId val="68793088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2027,7 +2107,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="60975744"/>
+        <c:crossAx val="68786816"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2040,7 +2120,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000111" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000111" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.750000000000002" l="0.70000000000000062" r="0.70000000000000062" t="0.750000000000002" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2171,24 +2251,24 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="66053632"/>
-        <c:axId val="66055168"/>
+        <c:axId val="68822528"/>
+        <c:axId val="68824064"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="66053632"/>
+        <c:axId val="68822528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="66055168"/>
+        <c:crossAx val="68824064"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="66055168"/>
+        <c:axId val="68824064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2196,7 +2276,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="66053632"/>
+        <c:crossAx val="68822528"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2209,7 +2289,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000044" l="0.7000000000000004" r="0.7000000000000004" t="0.75000000000000044" header="0.30000000000000021" footer="0.30000000000000021"/>
+    <c:pageMargins b="0.75000000000000144" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000144" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2323,12 +2403,12 @@
           </c:val>
         </c:ser>
         <c:shape val="box"/>
-        <c:axId val="66375680"/>
-        <c:axId val="66377600"/>
+        <c:axId val="68919296"/>
+        <c:axId val="68921216"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="66375680"/>
+        <c:axId val="68919296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2353,14 +2433,14 @@
         </c:title>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="66377600"/>
+        <c:crossAx val="68921216"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="66377600"/>
+        <c:axId val="68921216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2391,7 +2471,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="66375680"/>
+        <c:crossAx val="68919296"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2404,7 +2484,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000089" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000089" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000178" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000178" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -3020,13 +3100,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr>
+  <sheetPr codeName="Sheet1">
     <tabColor theme="5" tint="-0.249977111117893"/>
   </sheetPr>
   <dimension ref="A1:AF35"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="T26" sqref="T26"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="U4" sqref="U4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3048,50 +3128,50 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:32" customFormat="1">
-      <c r="A1" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="19" t="s">
+      <c r="A1" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="C1" s="18" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="18" t="s">
+      <c r="C1" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="E1" s="17" t="s">
+      <c r="E1" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
-      <c r="H1" s="17"/>
-      <c r="I1" s="17" t="s">
+      <c r="F1" s="20"/>
+      <c r="G1" s="20"/>
+      <c r="H1" s="20"/>
+      <c r="I1" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="J1" s="17"/>
-      <c r="K1" s="17"/>
-      <c r="L1" s="17"/>
-      <c r="M1" s="17" t="s">
+      <c r="J1" s="20"/>
+      <c r="K1" s="20"/>
+      <c r="L1" s="20"/>
+      <c r="M1" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="N1" s="17"/>
-      <c r="O1" s="17"/>
-      <c r="P1" s="17"/>
-      <c r="Q1" s="17" t="s">
+      <c r="N1" s="20"/>
+      <c r="O1" s="20"/>
+      <c r="P1" s="20"/>
+      <c r="Q1" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="R1" s="17"/>
-      <c r="S1" s="17"/>
-      <c r="T1" s="17"/>
+      <c r="R1" s="20"/>
+      <c r="S1" s="20"/>
+      <c r="T1" s="20"/>
       <c r="U1" s="1"/>
       <c r="V1" s="1"/>
     </row>
     <row r="2" spans="1:32" customFormat="1">
-      <c r="A2" s="18"/>
-      <c r="B2" s="18"/>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
+      <c r="A2" s="21"/>
+      <c r="B2" s="21"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
       <c r="E2" s="7" t="s">
         <v>6</v>
       </c>
@@ -3207,7 +3287,9 @@
       <c r="U3" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="V3" s="2"/>
+      <c r="V3" s="8">
+        <v>1</v>
+      </c>
     </row>
     <row r="4" spans="1:32" customFormat="1">
       <c r="A4" s="3" t="s">
@@ -3273,7 +3355,7 @@
       <c r="U4" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="V4" s="2"/>
+      <c r="V4" s="8"/>
     </row>
     <row r="5" spans="1:32" customFormat="1">
       <c r="A5" s="3" t="s">
@@ -3339,7 +3421,9 @@
       <c r="U5" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="V5" s="2"/>
+      <c r="V5" s="8">
+        <v>1</v>
+      </c>
     </row>
     <row r="6" spans="1:32" customFormat="1">
       <c r="A6" s="3" t="s">
@@ -3405,7 +3489,9 @@
       <c r="U6" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="V6" s="2"/>
+      <c r="V6" s="8">
+        <v>1</v>
+      </c>
     </row>
     <row r="7" spans="1:32">
       <c r="A7" s="3" t="s">
@@ -3471,7 +3557,7 @@
       <c r="U7" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="V7" s="9"/>
+      <c r="V7" s="8"/>
     </row>
     <row r="8" spans="1:32">
       <c r="A8" s="3" t="s">
@@ -3537,7 +3623,7 @@
       <c r="U8" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="V8" s="9"/>
+      <c r="V8" s="8"/>
     </row>
     <row r="9" spans="1:32">
       <c r="A9" s="3" t="s">
@@ -3603,10 +3689,10 @@
       <c r="U9" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="V9" s="9"/>
+      <c r="V9" s="8"/>
     </row>
     <row r="10" spans="1:32">
-      <c r="A10" s="10" t="s">
+      <c r="A10" s="9" t="s">
         <v>20</v>
       </c>
       <c r="B10" s="3" t="s">
@@ -3669,7 +3755,7 @@
       <c r="U10" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="V10" s="9"/>
+      <c r="V10" s="8"/>
     </row>
     <row r="11" spans="1:32">
       <c r="A11" s="3" t="s">
@@ -3735,7 +3821,9 @@
       <c r="U11" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="V11" s="9"/>
+      <c r="V11" s="8">
+        <v>1</v>
+      </c>
     </row>
     <row r="12" spans="1:32">
       <c r="A12" s="3" t="s">
@@ -3806,16 +3894,18 @@
       <c r="U12" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="V12" s="9"/>
-      <c r="X12" s="14"/>
-      <c r="Y12" s="14"/>
-      <c r="Z12" s="14"/>
-      <c r="AA12" s="14"/>
-      <c r="AB12" s="14"/>
-      <c r="AC12" s="14"/>
-      <c r="AD12" s="14"/>
-      <c r="AE12" s="14"/>
-      <c r="AF12" s="14"/>
+      <c r="V12" s="8">
+        <v>1</v>
+      </c>
+      <c r="X12" s="13"/>
+      <c r="Y12" s="13"/>
+      <c r="Z12" s="13"/>
+      <c r="AA12" s="13"/>
+      <c r="AB12" s="13"/>
+      <c r="AC12" s="13"/>
+      <c r="AD12" s="13"/>
+      <c r="AE12" s="13"/>
+      <c r="AF12" s="13"/>
     </row>
     <row r="13" spans="1:32">
       <c r="A13" s="3" t="s">
@@ -3830,7 +3920,7 @@
       <c r="D13" s="6">
         <v>39953</v>
       </c>
-      <c r="E13" s="10">
+      <c r="E13" s="9">
         <v>70.05</v>
       </c>
       <c r="F13" s="3">
@@ -3886,16 +3976,18 @@
       <c r="U13" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="V13" s="9"/>
-      <c r="X13" s="14"/>
-      <c r="Y13" s="14"/>
-      <c r="Z13" s="14"/>
-      <c r="AA13" s="14"/>
-      <c r="AB13" s="14"/>
-      <c r="AC13" s="14"/>
-      <c r="AD13" s="14"/>
-      <c r="AE13" s="14"/>
-      <c r="AF13" s="14"/>
+      <c r="V13" s="8">
+        <v>1</v>
+      </c>
+      <c r="X13" s="13"/>
+      <c r="Y13" s="13"/>
+      <c r="Z13" s="13"/>
+      <c r="AA13" s="13"/>
+      <c r="AB13" s="13"/>
+      <c r="AC13" s="13"/>
+      <c r="AD13" s="13"/>
+      <c r="AE13" s="13"/>
+      <c r="AF13" s="13"/>
     </row>
     <row r="14" spans="1:32">
       <c r="A14" s="3" t="s">
@@ -3966,16 +4058,16 @@
       <c r="U14" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="V14" s="9"/>
-      <c r="X14" s="14"/>
-      <c r="Y14" s="14"/>
-      <c r="Z14" s="14"/>
-      <c r="AA14" s="14"/>
-      <c r="AB14" s="14"/>
-      <c r="AC14" s="14"/>
-      <c r="AD14" s="14"/>
-      <c r="AE14" s="14"/>
-      <c r="AF14" s="14"/>
+      <c r="V14" s="8"/>
+      <c r="X14" s="13"/>
+      <c r="Y14" s="13"/>
+      <c r="Z14" s="13"/>
+      <c r="AA14" s="13"/>
+      <c r="AB14" s="13"/>
+      <c r="AC14" s="13"/>
+      <c r="AD14" s="13"/>
+      <c r="AE14" s="13"/>
+      <c r="AF14" s="13"/>
     </row>
     <row r="15" spans="1:32">
       <c r="A15" s="3" t="s">
@@ -4048,15 +4140,17 @@
       <c r="U15" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="V15" s="9"/>
-      <c r="X15" s="13"/>
-      <c r="Y15" s="13"/>
-      <c r="Z15" s="13"/>
-      <c r="AA15" s="13"/>
-      <c r="AB15" s="13"/>
-      <c r="AC15" s="13"/>
-      <c r="AD15" s="13"/>
-      <c r="AE15" s="13"/>
+      <c r="V15" s="8">
+        <v>1</v>
+      </c>
+      <c r="X15" s="12"/>
+      <c r="Y15" s="12"/>
+      <c r="Z15" s="12"/>
+      <c r="AA15" s="12"/>
+      <c r="AB15" s="12"/>
+      <c r="AC15" s="12"/>
+      <c r="AD15" s="12"/>
+      <c r="AE15" s="12"/>
     </row>
     <row r="16" spans="1:32">
       <c r="A16" s="3" t="s">
@@ -4129,15 +4223,17 @@
       <c r="U16" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="V16" s="9"/>
-      <c r="X16" s="13"/>
-      <c r="Y16" s="13"/>
-      <c r="Z16" s="13"/>
-      <c r="AA16" s="13"/>
-      <c r="AB16" s="13"/>
-      <c r="AC16" s="13"/>
-      <c r="AD16" s="13"/>
-      <c r="AE16" s="13"/>
+      <c r="V16" s="8">
+        <v>1</v>
+      </c>
+      <c r="X16" s="12"/>
+      <c r="Y16" s="12"/>
+      <c r="Z16" s="12"/>
+      <c r="AA16" s="12"/>
+      <c r="AB16" s="12"/>
+      <c r="AC16" s="12"/>
+      <c r="AD16" s="12"/>
+      <c r="AE16" s="12"/>
     </row>
     <row r="17" spans="1:22">
       <c r="A17" s="3" t="s">
@@ -4210,55 +4306,145 @@
       <c r="U17" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="V17" s="9"/>
+      <c r="V17" s="8"/>
     </row>
     <row r="18" spans="1:22">
-      <c r="A18" s="3"/>
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
-      <c r="G18" s="3"/>
-      <c r="H18" s="3"/>
-      <c r="I18" s="3"/>
-      <c r="J18" s="3"/>
-      <c r="K18" s="3"/>
-      <c r="L18" s="3"/>
-      <c r="M18" s="3"/>
-      <c r="N18" s="3"/>
-      <c r="O18" s="3"/>
-      <c r="P18" s="3"/>
-      <c r="Q18" s="3"/>
-      <c r="R18" s="3"/>
-      <c r="S18" s="3"/>
-      <c r="T18" s="3"/>
-      <c r="U18" s="8"/>
-      <c r="V18" s="9"/>
+      <c r="A18" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C18" s="4">
+        <v>0.4375</v>
+      </c>
+      <c r="D18" s="6">
+        <v>39963</v>
+      </c>
+      <c r="E18" s="3">
+        <f>60+41.45</f>
+        <v>101.45</v>
+      </c>
+      <c r="F18" s="3">
+        <v>28.83</v>
+      </c>
+      <c r="G18" s="3">
+        <v>2</v>
+      </c>
+      <c r="H18" s="3">
+        <v>0</v>
+      </c>
+      <c r="I18" s="3">
+        <f>60+50.4</f>
+        <v>110.4</v>
+      </c>
+      <c r="J18" s="3">
+        <f>60+12.87</f>
+        <v>72.87</v>
+      </c>
+      <c r="K18" s="3">
+        <v>1</v>
+      </c>
+      <c r="L18" s="3">
+        <v>0</v>
+      </c>
+      <c r="M18" s="3">
+        <f>60*2+26.9</f>
+        <v>146.9</v>
+      </c>
+      <c r="N18" s="3">
+        <f>60+14.22</f>
+        <v>74.22</v>
+      </c>
+      <c r="O18" s="3">
+        <v>3</v>
+      </c>
+      <c r="P18" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q18" s="3">
+        <f>3*60+29.2</f>
+        <v>209.2</v>
+      </c>
+      <c r="R18" s="3">
+        <f>2*60+15.91</f>
+        <v>135.91</v>
+      </c>
+      <c r="S18" s="3">
+        <v>1</v>
+      </c>
+      <c r="T18" s="3">
+        <v>0</v>
+      </c>
+      <c r="U18" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="V18" s="8"/>
     </row>
     <row r="19" spans="1:22">
-      <c r="A19" s="3"/>
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
-      <c r="F19" s="3"/>
-      <c r="G19" s="3"/>
+      <c r="A19" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" s="4">
+        <v>0.83680555555555547</v>
+      </c>
+      <c r="D19" s="6">
+        <v>39964</v>
+      </c>
+      <c r="E19" s="3">
+        <f>60+59.5</f>
+        <v>119.5</v>
+      </c>
+      <c r="F19" s="3">
+        <v>26.4</v>
+      </c>
+      <c r="G19" s="3">
+        <v>1</v>
+      </c>
       <c r="H19" s="3"/>
-      <c r="I19" s="3"/>
-      <c r="J19" s="3"/>
-      <c r="K19" s="3"/>
+      <c r="I19" s="3">
+        <f>60+57.8</f>
+        <v>117.8</v>
+      </c>
+      <c r="J19" s="3">
+        <v>54.4</v>
+      </c>
+      <c r="K19" s="3">
+        <v>1</v>
+      </c>
       <c r="L19" s="3"/>
-      <c r="M19" s="3"/>
-      <c r="N19" s="3"/>
-      <c r="O19" s="3"/>
+      <c r="M19" s="3">
+        <f>2*60+56</f>
+        <v>176</v>
+      </c>
+      <c r="N19" s="3">
+        <v>60.4</v>
+      </c>
+      <c r="O19" s="3">
+        <v>1</v>
+      </c>
       <c r="P19" s="3"/>
-      <c r="Q19" s="3"/>
-      <c r="R19" s="3"/>
-      <c r="S19" s="3"/>
+      <c r="Q19" s="3">
+        <f>60+55</f>
+        <v>115</v>
+      </c>
+      <c r="R19" s="3">
+        <f>2*60+59.1</f>
+        <v>179.1</v>
+      </c>
+      <c r="S19" s="3">
+        <v>2</v>
+      </c>
       <c r="T19" s="3"/>
-      <c r="U19" s="9"/>
-      <c r="V19" s="9"/>
+      <c r="U19" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="V19" s="8">
+        <v>1</v>
+      </c>
     </row>
     <row r="20" spans="1:22">
       <c r="A20" s="3"/>
@@ -4281,8 +4467,8 @@
       <c r="R20" s="3"/>
       <c r="S20" s="3"/>
       <c r="T20" s="3"/>
-      <c r="U20" s="9"/>
-      <c r="V20" s="9"/>
+      <c r="U20" s="8"/>
+      <c r="V20" s="8"/>
     </row>
     <row r="21" spans="1:22">
       <c r="A21" s="3"/>
@@ -4305,8 +4491,8 @@
       <c r="R21" s="3"/>
       <c r="S21" s="3"/>
       <c r="T21" s="3"/>
-      <c r="U21" s="9"/>
-      <c r="V21" s="9"/>
+      <c r="U21" s="8"/>
+      <c r="V21" s="8"/>
     </row>
     <row r="22" spans="1:22">
       <c r="A22" s="3"/>
@@ -4329,8 +4515,8 @@
       <c r="R22" s="3"/>
       <c r="S22" s="3"/>
       <c r="T22" s="3"/>
-      <c r="U22" s="9"/>
-      <c r="V22" s="9"/>
+      <c r="U22" s="8"/>
+      <c r="V22" s="8"/>
     </row>
     <row r="23" spans="1:22">
       <c r="A23" s="3"/>
@@ -4353,8 +4539,8 @@
       <c r="R23" s="3"/>
       <c r="S23" s="3"/>
       <c r="T23" s="3"/>
-      <c r="U23" s="9"/>
-      <c r="V23" s="9"/>
+      <c r="U23" s="8"/>
+      <c r="V23" s="8"/>
     </row>
     <row r="24" spans="1:22">
       <c r="A24" s="3"/>
@@ -4377,8 +4563,8 @@
       <c r="R24" s="3"/>
       <c r="S24" s="3"/>
       <c r="T24" s="3"/>
-      <c r="U24" s="9"/>
-      <c r="V24" s="9"/>
+      <c r="U24" s="8"/>
+      <c r="V24" s="8"/>
     </row>
     <row r="25" spans="1:22">
       <c r="A25" s="3"/>
@@ -4401,8 +4587,8 @@
       <c r="R25" s="3"/>
       <c r="S25" s="3"/>
       <c r="T25" s="3"/>
-      <c r="U25" s="9"/>
-      <c r="V25" s="9"/>
+      <c r="U25" s="8"/>
+      <c r="V25" s="8"/>
     </row>
     <row r="26" spans="1:22">
       <c r="A26" s="3"/>
@@ -4425,8 +4611,8 @@
       <c r="R26" s="3"/>
       <c r="S26" s="3"/>
       <c r="T26" s="3"/>
-      <c r="U26" s="9"/>
-      <c r="V26" s="9"/>
+      <c r="U26" s="8"/>
+      <c r="V26" s="8"/>
     </row>
     <row r="27" spans="1:22">
       <c r="A27" s="3"/>
@@ -4449,8 +4635,8 @@
       <c r="R27" s="3"/>
       <c r="S27" s="3"/>
       <c r="T27" s="3"/>
-      <c r="U27" s="9"/>
-      <c r="V27" s="9"/>
+      <c r="U27" s="8"/>
+      <c r="V27" s="8"/>
     </row>
     <row r="28" spans="1:22">
       <c r="A28" s="3"/>
@@ -4473,8 +4659,8 @@
       <c r="R28" s="3"/>
       <c r="S28" s="3"/>
       <c r="T28" s="3"/>
-      <c r="U28" s="9"/>
-      <c r="V28" s="9"/>
+      <c r="U28" s="8"/>
+      <c r="V28" s="8"/>
     </row>
     <row r="29" spans="1:22">
       <c r="A29" s="3"/>
@@ -4497,8 +4683,8 @@
       <c r="R29" s="3"/>
       <c r="S29" s="3"/>
       <c r="T29" s="3"/>
-      <c r="U29" s="9"/>
-      <c r="V29" s="9"/>
+      <c r="U29" s="8"/>
+      <c r="V29" s="8"/>
     </row>
     <row r="30" spans="1:22">
       <c r="A30" s="3"/>
@@ -4521,8 +4707,8 @@
       <c r="R30" s="3"/>
       <c r="S30" s="3"/>
       <c r="T30" s="3"/>
-      <c r="U30" s="9"/>
-      <c r="V30" s="9"/>
+      <c r="U30" s="8"/>
+      <c r="V30" s="8"/>
     </row>
     <row r="31" spans="1:22">
       <c r="A31" s="3"/>
@@ -4545,8 +4731,8 @@
       <c r="R31" s="3"/>
       <c r="S31" s="3"/>
       <c r="T31" s="3"/>
-      <c r="U31" s="9"/>
-      <c r="V31" s="9"/>
+      <c r="U31" s="8"/>
+      <c r="V31" s="8"/>
     </row>
     <row r="32" spans="1:22">
       <c r="A32" s="3"/>
@@ -4569,8 +4755,8 @@
       <c r="R32" s="3"/>
       <c r="S32" s="3"/>
       <c r="T32" s="3"/>
-      <c r="U32" s="9"/>
-      <c r="V32" s="9"/>
+      <c r="U32" s="8"/>
+      <c r="V32" s="8"/>
     </row>
     <row r="33" spans="1:22">
       <c r="A33" s="3"/>
@@ -4593,8 +4779,8 @@
       <c r="R33" s="3"/>
       <c r="S33" s="3"/>
       <c r="T33" s="3"/>
-      <c r="U33" s="9"/>
-      <c r="V33" s="9"/>
+      <c r="U33" s="8"/>
+      <c r="V33" s="8"/>
     </row>
     <row r="34" spans="1:22">
       <c r="A34" s="3"/>
@@ -4617,8 +4803,8 @@
       <c r="R34" s="3"/>
       <c r="S34" s="3"/>
       <c r="T34" s="3"/>
-      <c r="U34" s="9"/>
-      <c r="V34" s="9"/>
+      <c r="U34" s="8"/>
+      <c r="V34" s="8"/>
     </row>
     <row r="35" spans="1:22">
       <c r="A35" s="3"/>
@@ -4641,8 +4827,8 @@
       <c r="R35" s="3"/>
       <c r="S35" s="3"/>
       <c r="T35" s="3"/>
-      <c r="U35" s="9"/>
-      <c r="V35" s="9"/>
+      <c r="U35" s="8"/>
+      <c r="V35" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -4662,24 +4848,24 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr>
+  <sheetPr codeName="Sheet2">
     <tabColor theme="3"/>
   </sheetPr>
   <dimension ref="A1:D35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="P22" sqref="P22"/>
+      <selection activeCell="B39" sqref="B39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="7" t="s">
@@ -4836,7 +5022,7 @@
       </c>
     </row>
     <row r="13" spans="1:4">
-      <c r="A13" s="10">
+      <c r="A13" s="9">
         <v>70.05</v>
       </c>
       <c r="B13" s="3">
@@ -5040,24 +5226,24 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr>
+  <sheetPr codeName="Sheet3">
     <tabColor theme="4"/>
   </sheetPr>
   <dimension ref="A1:D35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="O12" sqref="O12"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B38" sqref="B38:B40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="7" t="s">
@@ -5422,7 +5608,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr>
+  <sheetPr codeName="Sheet4">
     <tabColor theme="3"/>
   </sheetPr>
   <dimension ref="A1:D35"/>
@@ -5434,12 +5620,12 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="7" t="s">
@@ -5808,7 +5994,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr>
+  <sheetPr codeName="Sheet5">
     <tabColor theme="4"/>
   </sheetPr>
   <dimension ref="A1:D35"/>
@@ -5820,12 +6006,12 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="7" t="s">
@@ -6194,10 +6380,11 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:AI29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G25" sqref="G25"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="Y2" sqref="Y2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -6209,57 +6396,68 @@
     <col min="13" max="13" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19">
-      <c r="A1" s="17" t="s">
+    <row r="1" spans="1:27">
+      <c r="A1" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17" t="s">
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
-      <c r="H1" s="17"/>
-      <c r="J1" s="17" t="s">
+      <c r="F1" s="20"/>
+      <c r="G1" s="20"/>
+      <c r="H1" s="20"/>
+      <c r="J1" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="K1" s="17"/>
-      <c r="L1" s="17"/>
-      <c r="M1" s="17"/>
-      <c r="N1" s="17" t="s">
+      <c r="K1" s="20"/>
+      <c r="L1" s="20"/>
+      <c r="M1" s="20"/>
+      <c r="N1" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="O1" s="17"/>
-      <c r="P1" s="17"/>
-      <c r="Q1" s="17"/>
-      <c r="R1" s="11"/>
-      <c r="S1" s="11"/>
-    </row>
-    <row r="2" spans="1:19">
-      <c r="A2" s="15" t="s">
+      <c r="O1" s="20"/>
+      <c r="P1" s="20"/>
+      <c r="Q1" s="20"/>
+      <c r="R1" s="10"/>
+      <c r="S1" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="T1" s="18"/>
+      <c r="U1" s="18"/>
+      <c r="V1" s="18"/>
+      <c r="X1" s="25" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y1" s="26"/>
+      <c r="Z1" s="26"/>
+      <c r="AA1" s="26"/>
+    </row>
+    <row r="2" spans="1:27" ht="15.75" thickBot="1">
+      <c r="A2" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="15" t="s">
+      <c r="B2" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="15" t="s">
+      <c r="C2" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="15" t="s">
+      <c r="D2" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="15" t="s">
+      <c r="E2" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="15" t="s">
+      <c r="F2" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="15" t="s">
+      <c r="G2" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="H2" s="15" t="s">
+      <c r="H2" s="14" t="s">
         <v>5</v>
       </c>
       <c r="J2" s="7" t="s">
@@ -6286,10 +6484,33 @@
       <c r="Q2" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="R2" s="12"/>
-      <c r="S2" s="12"/>
-    </row>
-    <row r="3" spans="1:19">
+      <c r="R2" s="11"/>
+      <c r="S2" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="T2" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="U2" s="19" t="s">
+        <v>53</v>
+      </c>
+      <c r="V2" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="X2" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="Y2" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="Z2" s="19" t="s">
+        <v>53</v>
+      </c>
+      <c r="AA2" s="19" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="3" spans="1:27">
       <c r="A3" s="3">
         <v>204.2</v>
       </c>
@@ -6338,10 +6559,41 @@
       <c r="Q3" s="3">
         <v>0</v>
       </c>
-      <c r="R3" s="12"/>
-      <c r="S3" s="12"/>
-    </row>
-    <row r="4" spans="1:19">
+      <c r="R3" s="11"/>
+      <c r="S3" s="16">
+        <f t="shared" ref="S3:S17" si="0">A3-E3</f>
+        <v>164.2</v>
+      </c>
+      <c r="T3" s="16">
+        <f t="shared" ref="T3:T17" si="1">B3-F3</f>
+        <v>9.5</v>
+      </c>
+      <c r="U3" s="16">
+        <f t="shared" ref="U3:U17" si="2">C3-G3</f>
+        <v>109.3</v>
+      </c>
+      <c r="V3" s="16">
+        <f t="shared" ref="V3:V17" si="3">D3-H3</f>
+        <v>126.69999999999999</v>
+      </c>
+      <c r="X3" s="16">
+        <f>J3-N3</f>
+        <v>2</v>
+      </c>
+      <c r="Y3" s="16">
+        <f t="shared" ref="Y3:AA17" si="4">K3-O3</f>
+        <v>0</v>
+      </c>
+      <c r="Z3" s="16">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AA3" s="16">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:27">
       <c r="A4" s="3">
         <v>287.7</v>
       </c>
@@ -6390,10 +6642,41 @@
       <c r="Q4" s="3">
         <v>0</v>
       </c>
-      <c r="R4" s="12"/>
-      <c r="S4" s="12"/>
-    </row>
-    <row r="5" spans="1:19">
+      <c r="R4" s="11"/>
+      <c r="S4" s="16">
+        <f t="shared" si="0"/>
+        <v>239.7</v>
+      </c>
+      <c r="T4" s="16">
+        <f t="shared" si="1"/>
+        <v>52.699999999999989</v>
+      </c>
+      <c r="U4" s="16">
+        <f t="shared" si="2"/>
+        <v>129.9</v>
+      </c>
+      <c r="V4" s="16">
+        <f t="shared" si="3"/>
+        <v>78.200000000000017</v>
+      </c>
+      <c r="X4" s="16">
+        <f t="shared" ref="X4:X17" si="5">J4-N4</f>
+        <v>3</v>
+      </c>
+      <c r="Y4" s="16">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="Z4" s="16">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AA4" s="16">
+        <f t="shared" si="4"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:27">
       <c r="A5" s="3">
         <v>215.4</v>
       </c>
@@ -6442,10 +6725,41 @@
       <c r="Q5" s="3">
         <v>0</v>
       </c>
-      <c r="R5" s="12"/>
-      <c r="S5" s="12"/>
-    </row>
-    <row r="6" spans="1:19">
+      <c r="R5" s="11"/>
+      <c r="S5" s="16">
+        <f t="shared" si="0"/>
+        <v>173.8</v>
+      </c>
+      <c r="T5" s="16">
+        <f t="shared" si="1"/>
+        <v>167</v>
+      </c>
+      <c r="U5" s="16">
+        <f t="shared" si="2"/>
+        <v>215.49999999999997</v>
+      </c>
+      <c r="V5" s="16">
+        <f t="shared" si="3"/>
+        <v>91.5</v>
+      </c>
+      <c r="X5" s="16">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="Y5" s="16">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="Z5" s="16">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="AA5" s="16">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:27">
       <c r="A6" s="3">
         <v>144.69999999999999</v>
       </c>
@@ -6494,10 +6808,41 @@
       <c r="Q6" s="3">
         <v>0</v>
       </c>
-      <c r="R6" s="12"/>
-      <c r="S6" s="12"/>
-    </row>
-    <row r="7" spans="1:19">
+      <c r="R6" s="11"/>
+      <c r="S6" s="16">
+        <f t="shared" si="0"/>
+        <v>110.69999999999999</v>
+      </c>
+      <c r="T6" s="16">
+        <f t="shared" si="1"/>
+        <v>112.4</v>
+      </c>
+      <c r="U6" s="16">
+        <f t="shared" si="2"/>
+        <v>213.00000000000003</v>
+      </c>
+      <c r="V6" s="16">
+        <f t="shared" si="3"/>
+        <v>134.30000000000001</v>
+      </c>
+      <c r="X6" s="16">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="Y6" s="16">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="Z6" s="16">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AA6" s="16">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:27">
       <c r="A7" s="3">
         <v>102</v>
       </c>
@@ -6546,10 +6891,41 @@
       <c r="Q7" s="3">
         <v>0</v>
       </c>
-      <c r="R7" s="12"/>
-      <c r="S7" s="12"/>
-    </row>
-    <row r="8" spans="1:19">
+      <c r="R7" s="11"/>
+      <c r="S7" s="16">
+        <f t="shared" si="0"/>
+        <v>76</v>
+      </c>
+      <c r="T7" s="16">
+        <f t="shared" si="1"/>
+        <v>50</v>
+      </c>
+      <c r="U7" s="16">
+        <f t="shared" si="2"/>
+        <v>111</v>
+      </c>
+      <c r="V7" s="16">
+        <f t="shared" si="3"/>
+        <v>80.5</v>
+      </c>
+      <c r="X7" s="16">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="Y7" s="16">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="Z7" s="16">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AA7" s="16">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:27">
       <c r="A8" s="3">
         <v>124</v>
       </c>
@@ -6598,10 +6974,41 @@
       <c r="Q8" s="3">
         <v>0</v>
       </c>
-      <c r="R8" s="12"/>
-      <c r="S8" s="12"/>
-    </row>
-    <row r="9" spans="1:19">
+      <c r="R8" s="11"/>
+      <c r="S8" s="16">
+        <f t="shared" si="0"/>
+        <v>104</v>
+      </c>
+      <c r="T8" s="16">
+        <f t="shared" si="1"/>
+        <v>101.7</v>
+      </c>
+      <c r="U8" s="16">
+        <f t="shared" si="2"/>
+        <v>88.1</v>
+      </c>
+      <c r="V8" s="16">
+        <f t="shared" si="3"/>
+        <v>112.1</v>
+      </c>
+      <c r="X8" s="16">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="Y8" s="16">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="Z8" s="16">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AA8" s="16">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:27">
       <c r="A9" s="3">
         <v>101.9</v>
       </c>
@@ -6650,10 +7057,41 @@
       <c r="Q9" s="3">
         <v>0</v>
       </c>
-      <c r="R9" s="12"/>
-      <c r="S9" s="12"/>
-    </row>
-    <row r="10" spans="1:19">
+      <c r="R9" s="11"/>
+      <c r="S9" s="16">
+        <f t="shared" si="0"/>
+        <v>77.900000000000006</v>
+      </c>
+      <c r="T9" s="16">
+        <f t="shared" si="1"/>
+        <v>57.3</v>
+      </c>
+      <c r="U9" s="16">
+        <f t="shared" si="2"/>
+        <v>24.200000000000003</v>
+      </c>
+      <c r="V9" s="16">
+        <f t="shared" si="3"/>
+        <v>61.199999999999989</v>
+      </c>
+      <c r="X9" s="16">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="Y9" s="16">
+        <f t="shared" si="4"/>
+        <v>-1</v>
+      </c>
+      <c r="Z9" s="16">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AA9" s="16">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:27">
       <c r="A10" s="3">
         <v>126.6</v>
       </c>
@@ -6702,10 +7140,41 @@
       <c r="Q10" s="3">
         <v>0</v>
       </c>
-      <c r="R10" s="12"/>
-      <c r="S10" s="12"/>
-    </row>
-    <row r="11" spans="1:19">
+      <c r="R10" s="11"/>
+      <c r="S10" s="16">
+        <f t="shared" si="0"/>
+        <v>111.6</v>
+      </c>
+      <c r="T10" s="16">
+        <f t="shared" si="1"/>
+        <v>87.6</v>
+      </c>
+      <c r="U10" s="16">
+        <f t="shared" si="2"/>
+        <v>112.1</v>
+      </c>
+      <c r="V10" s="16">
+        <f t="shared" si="3"/>
+        <v>113.6</v>
+      </c>
+      <c r="X10" s="16">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="Y10" s="16">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="Z10" s="16">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AA10" s="16">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:27">
       <c r="A11" s="3">
         <v>86.7</v>
       </c>
@@ -6754,10 +7223,41 @@
       <c r="Q11" s="3">
         <v>0</v>
       </c>
-      <c r="R11" s="12"/>
-      <c r="S11" s="12"/>
-    </row>
-    <row r="12" spans="1:19">
+      <c r="R11" s="11"/>
+      <c r="S11" s="16">
+        <f t="shared" si="0"/>
+        <v>55.1</v>
+      </c>
+      <c r="T11" s="16">
+        <f t="shared" si="1"/>
+        <v>43</v>
+      </c>
+      <c r="U11" s="16">
+        <f t="shared" si="2"/>
+        <v>72.899999999999991</v>
+      </c>
+      <c r="V11" s="16">
+        <f t="shared" si="3"/>
+        <v>84.399999999999991</v>
+      </c>
+      <c r="X11" s="16">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="Y11" s="16">
+        <f t="shared" si="4"/>
+        <v>-1</v>
+      </c>
+      <c r="Z11" s="16">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AA11" s="16">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:27">
       <c r="A12" s="3">
         <v>105.2</v>
       </c>
@@ -6806,11 +7306,42 @@
       <c r="Q12" s="3">
         <v>0</v>
       </c>
-      <c r="R12" s="12"/>
-      <c r="S12" s="12"/>
-    </row>
-    <row r="13" spans="1:19">
-      <c r="A13" s="10">
+      <c r="R12" s="11"/>
+      <c r="S12" s="16">
+        <f t="shared" si="0"/>
+        <v>73.48</v>
+      </c>
+      <c r="T12" s="16">
+        <f t="shared" si="1"/>
+        <v>63.14</v>
+      </c>
+      <c r="U12" s="16">
+        <f t="shared" si="2"/>
+        <v>124.99999999999999</v>
+      </c>
+      <c r="V12" s="16">
+        <f t="shared" si="3"/>
+        <v>140.02000000000001</v>
+      </c>
+      <c r="X12" s="16">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="Y12" s="16">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="Z12" s="16">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="AA12" s="16">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27">
+      <c r="A13" s="9">
         <v>70.05</v>
       </c>
       <c r="B13" s="3">
@@ -6858,10 +7389,41 @@
       <c r="Q13" s="3">
         <v>0</v>
       </c>
-      <c r="R13" s="12"/>
-      <c r="S13" s="12"/>
-    </row>
-    <row r="14" spans="1:19">
+      <c r="R13" s="11"/>
+      <c r="S13" s="16">
+        <f t="shared" si="0"/>
+        <v>34.629999999999995</v>
+      </c>
+      <c r="T13" s="16">
+        <f t="shared" si="1"/>
+        <v>67.959999999999994</v>
+      </c>
+      <c r="U13" s="16">
+        <f t="shared" si="2"/>
+        <v>115.90999999999998</v>
+      </c>
+      <c r="V13" s="16">
+        <f t="shared" si="3"/>
+        <v>128.50000000000003</v>
+      </c>
+      <c r="X13" s="16">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="Y13" s="16">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="Z13" s="16">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="AA13" s="16">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27">
       <c r="A14" s="3">
         <v>165.09</v>
       </c>
@@ -6910,10 +7472,41 @@
       <c r="Q14" s="3">
         <v>0</v>
       </c>
-      <c r="R14" s="12"/>
-      <c r="S14" s="12"/>
-    </row>
-    <row r="15" spans="1:19">
+      <c r="R14" s="11"/>
+      <c r="S14" s="16">
+        <f t="shared" si="0"/>
+        <v>106.49000000000001</v>
+      </c>
+      <c r="T14" s="16">
+        <f t="shared" si="1"/>
+        <v>38.409999999999997</v>
+      </c>
+      <c r="U14" s="16">
+        <f t="shared" si="2"/>
+        <v>211.04</v>
+      </c>
+      <c r="V14" s="16">
+        <f t="shared" si="3"/>
+        <v>100.46999999999997</v>
+      </c>
+      <c r="X14" s="16">
+        <f t="shared" si="5"/>
+        <v>3</v>
+      </c>
+      <c r="Y14" s="16">
+        <f t="shared" si="4"/>
+        <v>-1</v>
+      </c>
+      <c r="Z14" s="16">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="AA14" s="16">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27">
       <c r="A15" s="3">
         <v>224.8</v>
       </c>
@@ -6962,10 +7555,41 @@
       <c r="Q15" s="3">
         <v>1</v>
       </c>
-      <c r="R15" s="12"/>
-      <c r="S15" s="12"/>
-    </row>
-    <row r="16" spans="1:19">
+      <c r="R15" s="11"/>
+      <c r="S15" s="16">
+        <f t="shared" si="0"/>
+        <v>197.3</v>
+      </c>
+      <c r="T15" s="16">
+        <f t="shared" si="1"/>
+        <v>56.899999999999991</v>
+      </c>
+      <c r="U15" s="16">
+        <f t="shared" si="2"/>
+        <v>161.40000000000003</v>
+      </c>
+      <c r="V15" s="16">
+        <f t="shared" si="3"/>
+        <v>138.69999999999999</v>
+      </c>
+      <c r="X15" s="16">
+        <f t="shared" si="5"/>
+        <v>3</v>
+      </c>
+      <c r="Y15" s="16">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="Z15" s="16">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="AA15" s="16">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27">
       <c r="A16" s="5">
         <v>102.2</v>
       </c>
@@ -7014,8 +7638,39 @@
       <c r="Q16" s="3">
         <v>0</v>
       </c>
-      <c r="R16" s="12"/>
-      <c r="S16" s="12"/>
+      <c r="R16" s="11"/>
+      <c r="S16" s="16">
+        <f t="shared" si="0"/>
+        <v>68</v>
+      </c>
+      <c r="T16" s="16">
+        <f t="shared" si="1"/>
+        <v>53.899999999999991</v>
+      </c>
+      <c r="U16" s="16">
+        <f t="shared" si="2"/>
+        <v>90.1</v>
+      </c>
+      <c r="V16" s="16">
+        <f t="shared" si="3"/>
+        <v>89.600000000000009</v>
+      </c>
+      <c r="X16" s="16">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="Y16" s="16">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="Z16" s="16">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="AA16" s="16">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
     </row>
     <row r="17" spans="1:35">
       <c r="A17" s="3">
@@ -7066,46 +7721,100 @@
       <c r="Q17" s="3">
         <v>0</v>
       </c>
+      <c r="S17" s="16">
+        <f t="shared" si="0"/>
+        <v>36.5</v>
+      </c>
+      <c r="T17" s="16">
+        <f t="shared" si="1"/>
+        <v>41</v>
+      </c>
+      <c r="U17" s="16">
+        <f t="shared" si="2"/>
+        <v>43</v>
+      </c>
+      <c r="V17" s="16">
+        <f t="shared" si="3"/>
+        <v>48.099999999999994</v>
+      </c>
+      <c r="X17" s="16">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="Y17" s="16">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="Z17" s="16">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="AA17" s="16">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
     </row>
     <row r="18" spans="1:35">
-      <c r="AG18" s="12"/>
-      <c r="AH18" s="12"/>
-      <c r="AI18" s="12"/>
+      <c r="AG18" s="11"/>
+      <c r="AH18" s="11"/>
+      <c r="AI18" s="11"/>
     </row>
     <row r="19" spans="1:35">
-      <c r="AG19" s="12"/>
-      <c r="AH19" s="12"/>
-      <c r="AI19" s="12"/>
+      <c r="D19">
+        <f>STDEV(D3:D17)</f>
+        <v>48.707617131888938</v>
+      </c>
+      <c r="E19">
+        <f>D19/D22*100</f>
+        <v>20.257420514281513</v>
+      </c>
+      <c r="H19">
+        <f>STDEV(H3:H17)</f>
+        <v>37.32265795924598</v>
+      </c>
+      <c r="I19">
+        <f>H19/H22*100</f>
+        <v>26.931433613725964</v>
+      </c>
+      <c r="AG19" s="11"/>
+      <c r="AH19" s="11"/>
+      <c r="AI19" s="11"/>
     </row>
     <row r="20" spans="1:35">
-      <c r="AG20" s="12"/>
-      <c r="AH20" s="12"/>
-      <c r="AI20" s="12"/>
+      <c r="AG20" s="11"/>
+      <c r="AH20" s="11"/>
+      <c r="AI20" s="11"/>
     </row>
     <row r="21" spans="1:35">
-      <c r="A21" s="17" t="s">
+      <c r="A21" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="B21" s="17"/>
-      <c r="C21" s="17"/>
-      <c r="D21" s="17"/>
-      <c r="E21" s="17"/>
-      <c r="F21" s="17"/>
-      <c r="G21" s="17"/>
-      <c r="H21" s="17"/>
-      <c r="J21" s="17" t="s">
+      <c r="B21" s="20"/>
+      <c r="C21" s="20"/>
+      <c r="D21" s="20"/>
+      <c r="E21" s="20"/>
+      <c r="F21" s="20"/>
+      <c r="G21" s="20"/>
+      <c r="H21" s="20"/>
+      <c r="J21" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="K21" s="17"/>
-      <c r="L21" s="17"/>
-      <c r="M21" s="17"/>
-      <c r="N21" s="17"/>
-      <c r="O21" s="17"/>
-      <c r="P21" s="17"/>
-      <c r="Q21" s="17"/>
-      <c r="AG21" s="12"/>
-      <c r="AH21" s="12"/>
-      <c r="AI21" s="12"/>
+      <c r="K21" s="20"/>
+      <c r="L21" s="20"/>
+      <c r="M21" s="20"/>
+      <c r="N21" s="20"/>
+      <c r="O21" s="20"/>
+      <c r="P21" s="20"/>
+      <c r="Q21" s="20"/>
+      <c r="S21" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="T21" s="20"/>
+      <c r="U21" s="20"/>
+      <c r="V21" s="20"/>
+      <c r="AG21" s="11"/>
+      <c r="AH21" s="11"/>
+      <c r="AI21" s="11"/>
     </row>
     <row r="22" spans="1:35">
       <c r="A22">
@@ -7113,31 +7822,31 @@
         <v>141.90266666666668</v>
       </c>
       <c r="B22">
-        <f t="shared" ref="B22:H22" si="0">AVERAGE(B3:B17)</f>
+        <f t="shared" ref="B22:H22" si="6">AVERAGE(B3:B17)</f>
         <v>147.72199999999995</v>
       </c>
       <c r="C22">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>206.15466666666666</v>
       </c>
       <c r="D22">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>240.4433333333333</v>
       </c>
       <c r="E22">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>33.275999999999996</v>
       </c>
       <c r="F22">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>80.888000000000005</v>
       </c>
       <c r="G22">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>84.658000000000001</v>
       </c>
       <c r="H22">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>138.58399999999997</v>
       </c>
       <c r="J22">
@@ -7145,36 +7854,52 @@
         <v>1.4666666666666666</v>
       </c>
       <c r="K22">
-        <f t="shared" ref="K22:Q22" si="1">AVERAGE(K3:K17)</f>
+        <f t="shared" ref="K22:Q22" si="7">AVERAGE(K3:K17)</f>
         <v>0.73333333333333328</v>
       </c>
       <c r="L22">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>0.8666666666666667</v>
       </c>
       <c r="M22">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>1.6666666666666667</v>
       </c>
       <c r="N22">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>0.2</v>
       </c>
       <c r="O22">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>0.6</v>
       </c>
       <c r="P22">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>0.26666666666666666</v>
       </c>
       <c r="Q22">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>6.6666666666666666E-2</v>
       </c>
-      <c r="AG22" s="12"/>
-      <c r="AH22" s="12"/>
-      <c r="AI22" s="12"/>
+      <c r="S22" s="16">
+        <f>AVERAGE(S3:S17)</f>
+        <v>108.62666666666668</v>
+      </c>
+      <c r="T22" s="16">
+        <f>AVERAGE(T3:T17)</f>
+        <v>66.834000000000003</v>
+      </c>
+      <c r="U22" s="16">
+        <f>AVERAGE(U3:U17)</f>
+        <v>121.49666666666667</v>
+      </c>
+      <c r="V22" s="16">
+        <f>AVERAGE(V3:V17)</f>
+        <v>101.85933333333332</v>
+      </c>
+      <c r="AG22" s="11"/>
+      <c r="AH22" s="11"/>
+      <c r="AI22" s="11"/>
     </row>
     <row r="23" spans="1:35">
       <c r="E23">
@@ -7182,35 +7907,93 @@
         <v>76.550123558871348</v>
       </c>
       <c r="F23">
-        <f t="shared" ref="F23:H23" si="2">((B22-F22)/B22 )*100</f>
+        <f t="shared" ref="F23:H23" si="8">((B22-F22)/B22 )*100</f>
         <v>45.243091753428715</v>
       </c>
       <c r="G23">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>58.934715682723649</v>
       </c>
       <c r="H23">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>42.363134764948086</v>
       </c>
+      <c r="N23">
+        <f>((J22-N22)/J22 )*100</f>
+        <v>86.36363636363636</v>
+      </c>
+      <c r="O23">
+        <f t="shared" ref="O23" si="9">((K22-O22)/K22 )*100</f>
+        <v>18.18181818181818</v>
+      </c>
+      <c r="P23">
+        <f t="shared" ref="P23" si="10">((L22-P22)/L22 )*100</f>
+        <v>69.230769230769241</v>
+      </c>
+      <c r="Q23">
+        <f t="shared" ref="Q23" si="11">((M22-Q22)/M22 )*100</f>
+        <v>96</v>
+      </c>
+    </row>
+    <row r="24" spans="1:35">
+      <c r="S24" s="20" t="s">
+        <v>58</v>
+      </c>
+      <c r="T24" s="20"/>
+      <c r="U24" s="20"/>
+      <c r="V24" s="20"/>
+      <c r="X24" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="Y24" s="20"/>
+      <c r="Z24" s="20"/>
+      <c r="AA24" s="20"/>
     </row>
     <row r="25" spans="1:35">
-      <c r="A25" s="17" t="s">
+      <c r="A25" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="B25" s="17"/>
-      <c r="C25" s="17"/>
-      <c r="D25" s="17"/>
+      <c r="B25" s="20"/>
+      <c r="C25" s="20"/>
+      <c r="D25" s="20"/>
       <c r="G25">
         <f>AVERAGE(E23:H23)</f>
         <v>55.772766439992949</v>
       </c>
-      <c r="J25" s="17" t="s">
+      <c r="J25" s="20" t="s">
         <v>39</v>
       </c>
-      <c r="K25" s="17"/>
-      <c r="L25" s="17"/>
-      <c r="M25" s="17"/>
+      <c r="K25" s="20"/>
+      <c r="L25" s="20"/>
+      <c r="M25" s="20"/>
+      <c r="S25">
+        <f>STDEV(S3:S17)</f>
+        <v>60.270554723402576</v>
+      </c>
+      <c r="T25">
+        <f t="shared" ref="T25:V25" si="12">STDEV(T3:T17)</f>
+        <v>37.741466358067541</v>
+      </c>
+      <c r="U25">
+        <f t="shared" si="12"/>
+        <v>58.169824979066597</v>
+      </c>
+      <c r="V25">
+        <f t="shared" si="12"/>
+        <v>28.733957627733442</v>
+      </c>
+      <c r="X25" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="Y25" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z25" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA25" s="7" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="26" spans="1:35">
       <c r="A26" s="7" t="s">
@@ -7237,39 +8020,87 @@
       <c r="M26" s="7" t="s">
         <v>5</v>
       </c>
+      <c r="X26" s="15">
+        <f>S22-S27</f>
+        <v>75.24662644307648</v>
+      </c>
+      <c r="Y26" s="15">
+        <f>T22-T27</f>
+        <v>45.931393894727243</v>
+      </c>
+      <c r="Z26" s="15">
+        <f>U22-U27</f>
+        <v>89.280087501077986</v>
+      </c>
+      <c r="AA26" s="15">
+        <f>V22-V27</f>
+        <v>85.945415404447033</v>
+      </c>
     </row>
     <row r="27" spans="1:35">
-      <c r="A27" s="16">
+      <c r="A27" s="15">
         <f>TTEST(A3:A17,E3:E17,2,1)</f>
         <v>6.4455172533885096E-6</v>
       </c>
-      <c r="B27" s="16">
-        <f t="shared" ref="B27:D27" si="3">TTEST(B3:B17,F3:F17,2,1)</f>
+      <c r="B27" s="15">
+        <f t="shared" ref="B27:D27" si="13">TTEST(B3:B17,F3:F17,2,1)</f>
         <v>7.8275169367892675E-6</v>
       </c>
-      <c r="C27" s="16">
-        <f t="shared" si="3"/>
+      <c r="C27" s="15">
+        <f t="shared" si="13"/>
         <v>1.203122967934352E-6</v>
       </c>
-      <c r="D27" s="16">
-        <f t="shared" si="3"/>
+      <c r="D27" s="15">
+        <f t="shared" si="13"/>
         <v>1.6318125856318504E-9</v>
       </c>
-      <c r="J27" s="16">
+      <c r="J27" s="15">
         <f>TTEST(J3:J17,N3:N17,2,1)</f>
         <v>5.3825743501636667E-4</v>
       </c>
-      <c r="K27" s="16">
-        <f t="shared" ref="K27:M27" si="4">TTEST(K3:K17,O3:O17,2,1)</f>
+      <c r="K27" s="15">
+        <f t="shared" ref="K27:M27" si="14">TTEST(K3:K17,O3:O17,2,1)</f>
         <v>0.5816268369828651</v>
       </c>
-      <c r="L27" s="16">
-        <f t="shared" si="4"/>
+      <c r="L27" s="15">
+        <f t="shared" si="14"/>
         <v>7.0362468869755394E-3</v>
       </c>
-      <c r="M27" s="16">
-        <f t="shared" si="4"/>
+      <c r="M27" s="15">
+        <f t="shared" si="14"/>
         <v>7.4573613551279612E-5</v>
+      </c>
+      <c r="S27">
+        <f>S25*2.145/SQRT(15)</f>
+        <v>33.380040223590193</v>
+      </c>
+      <c r="T27">
+        <f>T25*2.145/SQRT(15)</f>
+        <v>20.90260610527276</v>
+      </c>
+      <c r="U27">
+        <f>U25*2.145/SQRT(15)</f>
+        <v>32.216579165588691</v>
+      </c>
+      <c r="V27">
+        <f>V25*2.145/SQRT(15)</f>
+        <v>15.91391792888629</v>
+      </c>
+      <c r="X27" s="15">
+        <f>S22+S27</f>
+        <v>142.00670689025688</v>
+      </c>
+      <c r="Y27" s="15">
+        <f>T22+T27</f>
+        <v>87.736606105272756</v>
+      </c>
+      <c r="Z27" s="15">
+        <f>U22+U27</f>
+        <v>153.71324583225535</v>
+      </c>
+      <c r="AA27" s="15">
+        <f>V22+V27</f>
+        <v>117.77325126221962</v>
       </c>
     </row>
     <row r="29" spans="1:35">
@@ -7278,15 +8109,18 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="11">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="E1:H1"/>
+    <mergeCell ref="A25:D25"/>
+    <mergeCell ref="A21:H21"/>
+    <mergeCell ref="X24:AA24"/>
+    <mergeCell ref="S21:V21"/>
+    <mergeCell ref="S24:V24"/>
     <mergeCell ref="N1:Q1"/>
     <mergeCell ref="J21:Q21"/>
     <mergeCell ref="J25:M25"/>
     <mergeCell ref="J1:M1"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="E1:H1"/>
-    <mergeCell ref="A25:D25"/>
-    <mergeCell ref="A21:H21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
@@ -7296,10 +8130,11 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr codeName="Sheet7"/>
   <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -7324,84 +8159,84 @@
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="17" t="s">
+      <c r="A3" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="17"/>
-      <c r="D3" s="16">
-        <v>0</v>
-      </c>
-      <c r="E3" s="16">
+      <c r="B3" s="20"/>
+      <c r="D3" s="15">
+        <v>0</v>
+      </c>
+      <c r="E3" s="15">
         <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="16" t="s">
+      <c r="A4" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="B4" s="16">
+      <c r="B4" s="15">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="16" t="s">
+      <c r="A5" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="B5" s="16">
+      <c r="B5" s="15">
         <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="16" t="s">
+      <c r="A6" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="B6" s="16">
+      <c r="B6" s="15">
         <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:5">
-      <c r="A9" s="20" t="s">
+      <c r="A9" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="21"/>
+      <c r="B9" s="24"/>
     </row>
     <row r="10" spans="1:5">
-      <c r="A10" s="16" t="s">
+      <c r="A10" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="B10" s="16">
+      <c r="B10" s="15">
         <v>5</v>
       </c>
     </row>
     <row r="11" spans="1:5">
-      <c r="A11" s="16" t="s">
+      <c r="A11" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="B11" s="16">
+      <c r="B11" s="15">
         <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:5">
-      <c r="A12" s="16" t="s">
+      <c r="A12" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="B12" s="16">
+      <c r="B12" s="15">
         <v>4</v>
       </c>
     </row>
     <row r="13" spans="1:5">
-      <c r="A13" s="16" t="s">
+      <c r="A13" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="B13" s="16">
+      <c r="B13" s="15">
         <v>4</v>
       </c>
     </row>
     <row r="14" spans="1:5">
-      <c r="A14" s="16" t="s">
+      <c r="A14" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="B14" s="16">
+      <c r="B14" s="15">
         <v>2</v>
       </c>
     </row>
@@ -7412,4 +8247,19 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+</worksheet>
 </file>